--- a/NformTester/NformTester/keywordscripts/TST716_SaveImageInTrendGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST716_SaveImageInTrendGraph.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7880" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7872" uniqueCount="892">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3794,160 +3794,188 @@
     <t>Nform Server</t>
   </si>
   <si>
+    <t>Database Type</t>
+  </si>
+  <si>
+    <t>Database Version</t>
+  </si>
+  <si>
+    <t>Managed device limit</t>
+  </si>
+  <si>
+    <t>Advanced Communications</t>
+  </si>
+  <si>
+    <t>Advanced Notification</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>;Login.</t>
+  </si>
+  <si>
+    <t>Sashimi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"localhost"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add one device.</t>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ABC GXT UPS"</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Database Type</t>
-  </si>
-  <si>
-    <t>Database Version</t>
-  </si>
-  <si>
-    <t>Managed device limit</t>
-  </si>
-  <si>
-    <t>Advanced Communications</t>
-  </si>
-  <si>
-    <t>Advanced Notification</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
-  </si>
-  <si>
-    <t>FormAdd_Device_Results</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>;Clear operation.</t>
   </si>
   <si>
     <t>FormManaged_Devices</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Close</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>;Login.</t>
-  </si>
-  <si>
-    <t>Sashimi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Version</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
+    <t xml:space="preserve">;All the data points will get logged into the database. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add one device.</t>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>10.146.88.10</t>
+    <t>;Click on the Navigate tab then click on a device in the tree at left.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"SNMP"</t>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Prerequisites: N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Clear operation.</t>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
+    <t>"2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">;All the data points will get logged into the database. </t>
+    <t>Checked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Click on the Navigate tab then click on a device in the tree at left.</t>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;View the Plotted graph.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3955,50 +3983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Prerequisites: N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>" "</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;View the Plotted graph.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">;Right-click anywhere on the graph area for a pop-up menu with additional options. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4016,6 +4000,10 @@
   </si>
   <si>
     <t>;Verify that: verify that the Image should be open.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4186,7 +4174,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4200,9 +4188,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4539,15 +4524,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
@@ -4609,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4620,20 +4607,20 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="15"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>826</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>850</v>
+      <c r="D3" s="6" t="s">
+        <v>846</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -4643,31 +4630,31 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="15"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>856</v>
+        <v>851</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>852</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>857</v>
+      <c r="D4" s="6" t="s">
+        <v>853</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4684,20 +4671,20 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="15"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B5" s="9">
+        <v>854</v>
+      </c>
+      <c r="B5" s="8">
         <v>41143</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4708,20 +4695,20 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="15"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B6" s="9">
+        <v>855</v>
+      </c>
+      <c r="B6" s="8">
         <v>41144</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4732,44 +4719,44 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="15"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
         <v>828</v>
       </c>
       <c r="B7" s="3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>856</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>862</v>
+      <c r="D8" s="6" t="s">
+        <v>858</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4779,37 +4766,37 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>830</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4820,18 +4807,18 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -4840,26 +4827,26 @@
       <c r="G10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -4868,24 +4855,24 @@
       <c r="G11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="15"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>847</v>
+      <c r="D12" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>632</v>
@@ -4897,25 +4884,25 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="15"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>847</v>
+      <c r="D13" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>632</v>
@@ -4926,24 +4913,24 @@
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="B14" s="14"/>
+        <v>834</v>
+      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>847</v>
+      <c r="D14" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>571</v>
@@ -4954,26 +4941,26 @@
       <c r="G14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="B15" s="14"/>
+        <v>835</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -4988,21 +4975,21 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B16" s="14"/>
+        <v>836</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>875</v>
+      <c r="D16" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>871</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -5014,20 +5001,20 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2"/>
-      <c r="B17" s="14" t="s">
-        <v>838</v>
+      <c r="B17" s="13" t="s">
+        <v>837</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -5036,24 +5023,24 @@
       <c r="G17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="15"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
-      <c r="B18" s="14" t="s">
-        <v>839</v>
+      <c r="B18" s="13" t="s">
+        <v>838</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>847</v>
+      <c r="D18" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>571</v>
@@ -5064,26 +5051,26 @@
       <c r="G18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="15"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B19" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>830</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>847</v>
+      <c r="D19" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>632</v>
@@ -5094,24 +5081,24 @@
       <c r="G19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="15"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B20" s="14"/>
+        <v>840</v>
+      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5122,20 +5109,20 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="15"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="B21" s="14"/>
+        <v>841</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -5144,22 +5131,22 @@
       <c r="G21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
       <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -5168,26 +5155,26 @@
       <c r="G22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="15"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
       <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -5196,22 +5183,22 @@
       <c r="G23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14">
       <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -5220,22 +5207,22 @@
       <c r="G24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="15"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -5244,26 +5231,26 @@
       <c r="G25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="10">
-        <v>2</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+      <c r="I25" s="9">
         <v>1</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="15"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14">
       <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -5272,26 +5259,26 @@
       <c r="G26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>3</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>1</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -5300,24 +5287,24 @@
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>881</v>
-      </c>
-      <c r="I27" s="10"/>
+      <c r="H27" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="15"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14">
       <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -5326,24 +5313,24 @@
       <c r="G28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="I28" s="10"/>
+      <c r="H28" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="I28" s="9"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14">
       <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>630</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -5352,22 +5339,22 @@
       <c r="G29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="15"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -5376,22 +5363,22 @@
       <c r="G30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14">
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -5400,22 +5387,22 @@
       <c r="G31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="15"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14">
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -5424,22 +5411,22 @@
       <c r="G32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="15"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="3:14">
       <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -5448,20 +5435,20 @@
       <c r="G33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="15"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="3:14">
       <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>883</v>
+      <c r="D34" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
@@ -5473,21 +5460,21 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="15"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="3:14">
       <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>883</v>
+      <c r="D35" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -5504,14 +5491,14 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>883</v>
+      <c r="D36" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>19</v>
@@ -5528,14 +5515,14 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>883</v>
+      <c r="D37" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
@@ -5552,14 +5539,14 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="15"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="3:14">
       <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>883</v>
+      <c r="D38" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>19</v>
@@ -5570,11 +5557,11 @@
       <c r="G38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>885</v>
+      <c r="H38" s="9" t="s">
+        <v>881</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="J38" s="4" t="b">
         <v>1</v>
@@ -5582,14 +5569,14 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="15"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="3:14">
       <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>883</v>
+      <c r="D39" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -5601,10 +5588,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="J39" s="4">
         <v>2</v>
@@ -5612,14 +5599,14 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="15"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>883</v>
+      <c r="D40" s="6" t="s">
+        <v>879</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
@@ -5636,92 +5623,92 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="15"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="3:14" ht="15">
       <c r="C41" s="4">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="E41" s="10"/>
+        <v>884</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="15"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="4">
         <v>41</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>875</v>
+      <c r="D42" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>871</v>
       </c>
       <c r="F42" s="4">
         <v>5</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="15"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="3:14" ht="15">
       <c r="C43" s="4">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>886</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="15"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="3:14" ht="15">
       <c r="C44" s="4">
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="E44" s="10"/>
+        <v>887</v>
+      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="15"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="3:14">
       <c r="C45" s="4">
         <v>44</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -5730,22 +5717,22 @@
       <c r="G45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="15"/>
+      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="3:14">
       <c r="C46" s="4">
         <v>45</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>238</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -5754,164 +5741,164 @@
       <c r="G46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="15"/>
+      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="3:14">
       <c r="C47" s="4">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>879</v>
+      <c r="D47" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>875</v>
       </c>
       <c r="F47" s="4">
         <v>5</v>
       </c>
       <c r="G47" s="4"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="15"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="3:14" ht="15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="E48" s="10"/>
+        <v>889</v>
+      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="15"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="3:14">
       <c r="C49" s="4">
         <v>48</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>875</v>
+      <c r="D49" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>871</v>
       </c>
       <c r="F49" s="4">
         <v>5</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="15"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="3:14" ht="15">
       <c r="C50" s="4">
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="E50" s="10"/>
+        <v>890</v>
+      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="15"/>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="3:14">
       <c r="C51" s="4">
         <v>50</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>875</v>
+      <c r="D51" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>871</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
       </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="15"/>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="3:14" ht="15">
       <c r="C52" s="4">
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="E52" s="10"/>
+        <v>866</v>
+      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="15"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="3:14">
       <c r="C53" s="4">
         <v>52</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>811</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="15"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="3:14">
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -5920,22 +5907,22 @@
       <c r="G54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="15"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="3:14">
       <c r="C55" s="4">
         <v>54</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -5944,23 +5931,23 @@
       <c r="G55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="15"/>
+      <c r="N55" s="14"/>
     </row>
     <row r="56" spans="3:14">
       <c r="C56" s="4">
         <v>55</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>871</v>
+      <c r="D56" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>633</v>
@@ -5969,24 +5956,24 @@
         <v>3</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="15"/>
+      <c r="N56" s="14"/>
     </row>
     <row r="57" spans="3:14" ht="14.25">
       <c r="C57" s="4">
         <v>56</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>871</v>
+      <c r="D57" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>215</v>
@@ -5994,20 +5981,20 @@
       <c r="G57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="16"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="15"/>
+      <c r="N57" s="14"/>
     </row>
     <row r="58" spans="3:14">
       <c r="C58" s="4">
         <v>57</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>869</v>
+      <c r="D58" s="6" t="s">
+        <v>865</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>640</v>
@@ -6018,23 +6005,23 @@
       <c r="G58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="15"/>
+      <c r="N58" s="14"/>
     </row>
     <row r="59" spans="3:14">
       <c r="C59" s="4">
         <v>58</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>871</v>
+      <c r="D59" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>100</v>
@@ -6042,65 +6029,17 @@
       <c r="G59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="15"/>
-    </row>
-    <row r="60" spans="3:14">
-      <c r="C60" s="4">
-        <v>59</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="6"/>
-    </row>
-    <row r="61" spans="3:14">
-      <c r="C61" s="4">
-        <v>60</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="6"/>
+      <c r="N59" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N61">
+  <conditionalFormatting sqref="N2:N59">
     <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6109,16 +6048,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15 G57:G61 G17:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15 G17:G55 G57:G59">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D55 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54:D55 D3:D4 D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E59">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F59">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST716_SaveImageInTrendGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST716_SaveImageInTrendGraph.xlsx
@@ -3884,13 +3884,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -4005,6 +3998,12 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4526,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4684,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4708,7 +4707,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4769,19 +4768,19 @@
         <v>859</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4796,7 +4795,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4884,7 +4883,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4958,7 +4957,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>630</v>
@@ -4986,10 +4985,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -5098,7 +5097,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5159,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>861</v>
+        <v>891</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -5288,7 +5287,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5314,7 +5313,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="4"/>
@@ -5448,7 +5447,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
@@ -5460,7 +5459,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5474,7 +5473,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -5498,7 +5497,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>19</v>
@@ -5522,7 +5521,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
@@ -5546,7 +5545,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>19</v>
@@ -5558,10 +5557,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J38" s="4" t="b">
         <v>1</v>
@@ -5576,7 +5575,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -5588,10 +5587,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J39" s="4">
         <v>2</v>
@@ -5606,7 +5605,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
@@ -5630,7 +5629,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="4"/>
@@ -5648,10 +5647,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F42" s="4">
         <v>5</v>
@@ -5670,7 +5669,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="4"/>
@@ -5688,7 +5687,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="4"/>
@@ -5730,7 +5729,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>238</v>
@@ -5754,10 +5753,10 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F47" s="4">
         <v>5</v>
@@ -5776,7 +5775,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="4"/>
@@ -5794,10 +5793,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F49" s="4">
         <v>5</v>
@@ -5816,7 +5815,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="4"/>
@@ -5834,10 +5833,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5856,7 +5855,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4"/>
@@ -5944,10 +5943,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>633</v>
@@ -5956,7 +5955,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5970,10 +5969,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>215</v>
@@ -5994,7 +5993,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>640</v>
@@ -6018,10 +6017,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>867</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>100</v>

--- a/NformTester/NformTester/keywordscripts/TST716_SaveImageInTrendGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST716_SaveImageInTrendGraph.xlsx
@@ -3847,10 +3847,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Version</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4000,10 +3996,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4525,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4538,6 +4540,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4644,16 +4647,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>851</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>852</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4674,7 +4677,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B5" s="8">
         <v>41143</v>
@@ -4683,7 +4686,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4698,7 +4701,7 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B6" s="8">
         <v>41144</v>
@@ -4707,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4731,7 +4734,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
@@ -4746,16 +4749,14 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>857</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>632</v>
@@ -4765,7 +4766,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>890</v>
@@ -4774,28 +4775,26 @@
         <v>891</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>830</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4809,8 +4808,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>830</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4835,10 +4838,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4864,7 +4865,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4894,7 +4895,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4922,7 +4923,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4950,14 +4951,14 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>630</v>
@@ -4978,17 +4979,17 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>868</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>869</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -5003,10 +5004,10 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13" t="s">
-        <v>837</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5033,7 +5034,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5059,11 +5060,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>839</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="13" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5090,14 +5089,16 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B20" s="13"/>
+        <v>839</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>830</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -5112,7 +5113,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5139,6 +5140,10 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5313,7 +5318,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="4"/>
@@ -5447,7 +5452,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
@@ -5459,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -5473,7 +5478,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>19</v>
@@ -5497,7 +5502,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>19</v>
@@ -5521,7 +5526,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>19</v>
@@ -5545,7 +5550,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>19</v>
@@ -5557,10 +5562,10 @@
         <v>7</v>
       </c>
       <c r="H38" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="J38" s="4" t="b">
         <v>1</v>
@@ -5575,7 +5580,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>19</v>
@@ -5587,10 +5592,10 @@
         <v>7</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J39" s="4">
         <v>2</v>
@@ -5605,7 +5610,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>19</v>
@@ -5629,7 +5634,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="4"/>
@@ -5647,10 +5652,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F42" s="4">
         <v>5</v>
@@ -5669,7 +5674,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="4"/>
@@ -5687,7 +5692,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="4"/>
@@ -5729,7 +5734,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>238</v>
@@ -5753,10 +5758,10 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>872</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>873</v>
       </c>
       <c r="F47" s="4">
         <v>5</v>
@@ -5775,7 +5780,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="4"/>
@@ -5793,10 +5798,10 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F49" s="4">
         <v>5</v>
@@ -5815,7 +5820,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="4"/>
@@ -5833,10 +5838,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F51" s="4">
         <v>5</v>
@@ -5855,7 +5860,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4"/>
@@ -5943,10 +5948,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>633</v>
@@ -5955,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5969,10 +5974,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>215</v>
@@ -5993,7 +5998,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>640</v>
@@ -6017,10 +6022,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>100</v>
